--- a/medicine/Psychotrope/Wild_Turkey/Wild_Turkey.xlsx
+++ b/medicine/Psychotrope/Wild_Turkey/Wild_Turkey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wild Turkey est une marque de whiskey bourbon produit par la distillerie du même nom à Lawrenceburg, dans le Kentucky.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les frères Ripy ont construit une distillerie près de Lawrenceburg, Kentucky en 1869. Pendant la Prohibition (1917-1933), la distillerie a arrêté sa production. Le nom du whisky aurait été donné par Thomas McCarthy[1]. 
-En 1971, la distillerie des Ripy est acquise par Austin, Nichols &amp; Co. et le groupe français Pernod-Ricard la rachète pour 100 millions de dollars en 1980[1],[2]. En 2009, la compagnie française vend la marque Wild Turkey ainsi que sa distillerie à Gruppo Campari pour restructurer sa dette[2]. Le montant des négociations est à la hauteur de 391 millions d'euros[3].
-En 2011, la distillerie est remaniée avec des nouvelles installations qui lui permettent de produire 11 millions de gallons d'alcool pur par an[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les frères Ripy ont construit une distillerie près de Lawrenceburg, Kentucky en 1869. Pendant la Prohibition (1917-1933), la distillerie a arrêté sa production. Le nom du whisky aurait été donné par Thomas McCarthy. 
+En 1971, la distillerie des Ripy est acquise par Austin, Nichols &amp; Co. et le groupe français Pernod-Ricard la rachète pour 100 millions de dollars en 1980,. En 2009, la compagnie française vend la marque Wild Turkey ainsi que sa distillerie à Gruppo Campari pour restructurer sa dette. Le montant des négociations est à la hauteur de 391 millions d'euros.
+En 2011, la distillerie est remaniée avec des nouvelles installations qui lui permettent de produire 11 millions de gallons d'alcool pur par an.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Les whiskies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marque principale est considérée un des grands exemplaires d'un whisky bourbon[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque principale est considérée un des grands exemplaires d'un whisky bourbon.
 Elle élabore un nombre de bourbons: Wild Turkey 101, Wild Turkey Rare Breed, Russell's Reserve, Kentucky Spirit. La marque la plus réputée est le Wild Turkey.
 Pour information, un point de « proof » correspond à 0,5° d'alcool. Il existe plusieurs assemblages de Wild Turkey, notamment les « 81 proof » et « 101 proof » (prononcer one-o-one) respectivement à 40,5 et 50,5 degrés d'alcool.
 </t>
@@ -578,7 +594,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artiste de boogie-woogie et blues Kenny "Blues Boss" Wayne interprète une chanson nommée Wild Turkey 101 Proof qui évoque cette marque de whisky.
 </t>
